--- a/public/students-data.xlsx
+++ b/public/students-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>21CSE271T</t>
+  </si>
+  <si>
+    <t>subcode7</t>
+  </si>
+  <si>
+    <t>subcode8</t>
   </si>
 </sst>
 </file>
@@ -843,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -865,7 +871,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -905,8 +911,14 @@
       <c r="M1" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -947,7 +959,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -988,7 +1000,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1123,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1205,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1234,7 +1246,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1316,7 +1328,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1369,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1480,7 +1492,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -3188,7 +3200,7 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A1:L63 M1" name="Range1"/>
+    <protectedRange sqref="A1:L63 M1:O1" name="Range1"/>
   </protectedRanges>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C500">
